--- a/Benchmark_System/Multiple_Equals_poles4/Multiple Equal Poles4.xlsx
+++ b/Benchmark_System/Multiple_Equals_poles4/Multiple Equal Poles4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoar\Documenti\git hub\PID_PIDA_Controller\Benchmark_System\Multiple_Equals_poles4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFB84CA-026A-410E-A35B-91F17346A11E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C126C0-08F8-4E22-9A9B-8D5DDCBDA701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1068" windowWidth="21600" windowHeight="11436" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2004" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reference traking" sheetId="1" r:id="rId1"/>
@@ -91,8 +91,8 @@
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="182" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -135,8 +135,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -729,15 +729,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82ABA5A-E300-4473-9AFE-2282049B5848}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -771,7 +771,9 @@
       <c r="D2">
         <v>0.50354834481945099</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>0.49659535785544601</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -786,7 +788,9 @@
       <c r="D3" s="7">
         <v>5.1022936900622504</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>5.0712416855698796</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -801,7 +805,9 @@
       <c r="D4" s="7">
         <v>1.19617092898495</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>1.1612733411973399</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -816,13 +822,17 @@
       <c r="D5" s="7">
         <v>1.19617092898495</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>1.93294027046752</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>59.937741548895502</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -871,13 +881,17 @@
       <c r="D9" s="8">
         <v>180.52736669830199</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>285.95637483460098</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>1.00877083797304</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">

--- a/Benchmark_System/Multiple_Equals_poles4/Multiple Equal Poles4.xlsx
+++ b/Benchmark_System/Multiple_Equals_poles4/Multiple Equal Poles4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoar\Documenti\git hub\PID_PIDA_Controller\Benchmark_System\Multiple_Equals_poles4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085154A0-4452-47DB-9BEA-19F70D3DE435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72C32D6-D9C3-483B-A871-7ABD6E4199A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="1800" windowWidth="27000" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30135" yWindow="1575" windowWidth="27000" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reference traking" sheetId="1" r:id="rId1"/>
@@ -463,19 +463,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -732,6 +734,7 @@
         <v>3.10435069606784</v>
       </c>
     </row>
+    <row r="17" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -739,17 +742,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151A9C13-F3FF-454B-AAEA-BBA6AC050E96}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="B11:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
     <col min="2" max="5" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="8.88671875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="5" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -934,6 +938,7 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
